--- a/Input/Orient_familyCare/rateSheet.xlsx
+++ b/Input/Orient_familyCare/rateSheet.xlsx
@@ -11,8 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$715</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$715</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$715</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -98,7 +99,7 @@
     <t xml:space="preserve">Mednet Pearl</t>
   </si>
   <si>
-    <t xml:space="preserve">Mednet Silk Road ( Outpatient treatment restricted to Clinics)</t>
+    <t xml:space="preserve">Mednet Silk Road (Outpatient treatment restricted to Clinics)</t>
   </si>
   <si>
     <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, Diagnostics, Physio, and Pharma 10% co-pay</t>
@@ -114,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -149,12 +150,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -246,7 +241,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -352,13 +347,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K715"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B206" activeCellId="0" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -411,7 +406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -446,7 +441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -481,7 +476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -516,7 +511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -551,7 +546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -586,7 +581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -621,7 +616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -656,7 +651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -691,7 +686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -726,7 +721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -761,7 +756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -796,7 +791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -831,7 +826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -866,7 +861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -901,7 +896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -936,7 +931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -971,7 +966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -1006,7 +1001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -1041,7 +1036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -1076,7 +1071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -1111,7 +1106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
@@ -1146,7 +1141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -1181,7 +1176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -1216,7 +1211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -1251,7 +1246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
@@ -1286,7 +1281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
@@ -1321,7 +1316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -1356,7 +1351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -1391,7 +1386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
@@ -1426,7 +1421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -1461,7 +1456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -1496,7 +1491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -1531,7 +1526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
@@ -1566,7 +1561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>11</v>
       </c>
@@ -1601,7 +1596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -1636,7 +1631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -1671,7 +1666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
@@ -1706,7 +1701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
@@ -1741,7 +1736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>11</v>
       </c>
@@ -1776,7 +1771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -1811,7 +1806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>11</v>
       </c>
@@ -1846,7 +1841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>11</v>
       </c>
@@ -1881,7 +1876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>11</v>
       </c>
@@ -1916,7 +1911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
@@ -1951,7 +1946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
@@ -1986,7 +1981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>11</v>
       </c>
@@ -2021,7 +2016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
@@ -2056,7 +2051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
         <v>11</v>
       </c>
@@ -2091,7 +2086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
         <v>11</v>
       </c>
@@ -2126,7 +2121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
@@ -2161,7 +2156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
@@ -2196,7 +2191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -2231,7 +2226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
         <v>11</v>
       </c>
@@ -2266,7 +2261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
         <v>11</v>
       </c>
@@ -2301,7 +2296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
         <v>11</v>
       </c>
@@ -2336,7 +2331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
         <v>11</v>
       </c>
@@ -2371,7 +2366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
         <v>11</v>
       </c>
@@ -2406,7 +2401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
         <v>11</v>
       </c>
@@ -2441,7 +2436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
         <v>11</v>
       </c>
@@ -2476,7 +2471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
         <v>11</v>
       </c>
@@ -2511,7 +2506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>11</v>
       </c>
@@ -2546,7 +2541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
         <v>11</v>
       </c>
@@ -2581,7 +2576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
         <v>11</v>
       </c>
@@ -2616,7 +2611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
         <v>11</v>
       </c>
@@ -2651,7 +2646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
         <v>11</v>
       </c>
@@ -2686,7 +2681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
         <v>11</v>
       </c>
@@ -2721,7 +2716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
         <v>11</v>
       </c>
@@ -2756,7 +2751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
         <v>11</v>
       </c>
@@ -2791,7 +2786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
         <v>11</v>
       </c>
@@ -2826,7 +2821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
         <v>11</v>
       </c>
@@ -2861,7 +2856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
         <v>11</v>
       </c>
@@ -2896,7 +2891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
         <v>11</v>
       </c>
@@ -2931,7 +2926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
         <v>11</v>
       </c>
@@ -2966,7 +2961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>11</v>
       </c>
@@ -3001,7 +2996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>11</v>
       </c>
@@ -3036,7 +3031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
         <v>11</v>
       </c>
@@ -3071,7 +3066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
         <v>11</v>
       </c>
@@ -3106,7 +3101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
         <v>11</v>
       </c>
@@ -3141,7 +3136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
         <v>11</v>
       </c>
@@ -3176,7 +3171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
         <v>11</v>
       </c>
@@ -3211,7 +3206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
         <v>11</v>
       </c>
@@ -3246,7 +3241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
         <v>11</v>
       </c>
@@ -3281,7 +3276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
         <v>11</v>
       </c>
@@ -3316,7 +3311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
         <v>11</v>
       </c>
@@ -3351,7 +3346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
         <v>11</v>
       </c>
@@ -3386,7 +3381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
         <v>11</v>
       </c>
@@ -3421,7 +3416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
         <v>11</v>
       </c>
@@ -3456,7 +3451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
         <v>11</v>
       </c>
@@ -3491,7 +3486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
         <v>11</v>
       </c>
@@ -3526,7 +3521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
         <v>11</v>
       </c>
@@ -3561,7 +3556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
         <v>11</v>
       </c>
@@ -3596,7 +3591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
         <v>11</v>
       </c>
@@ -3631,7 +3626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
         <v>11</v>
       </c>
@@ -3666,7 +3661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
         <v>11</v>
       </c>
@@ -3701,7 +3696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
         <v>11</v>
       </c>
@@ -3736,7 +3731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
         <v>11</v>
       </c>
@@ -3771,7 +3766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
         <v>11</v>
       </c>
@@ -3806,7 +3801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
         <v>11</v>
       </c>
@@ -3841,7 +3836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
         <v>11</v>
       </c>
@@ -3876,7 +3871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
         <v>11</v>
       </c>
@@ -3911,7 +3906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
         <v>11</v>
       </c>
@@ -3946,7 +3941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
         <v>11</v>
       </c>
@@ -3981,7 +3976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
         <v>11</v>
       </c>
@@ -4016,7 +4011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
         <v>11</v>
       </c>
@@ -4051,7 +4046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
         <v>11</v>
       </c>
@@ -4086,7 +4081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
         <v>11</v>
       </c>
@@ -4121,7 +4116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
         <v>11</v>
       </c>
@@ -4156,7 +4151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
         <v>11</v>
       </c>
@@ -4191,7 +4186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
         <v>11</v>
       </c>
@@ -4226,7 +4221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
         <v>11</v>
       </c>
@@ -4261,7 +4256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
         <v>11</v>
       </c>
@@ -4296,7 +4291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
         <v>11</v>
       </c>
@@ -4331,7 +4326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
         <v>11</v>
       </c>
@@ -4366,7 +4361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
         <v>11</v>
       </c>
@@ -4401,7 +4396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
         <v>11</v>
       </c>
@@ -4436,7 +4431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
         <v>11</v>
       </c>
@@ -4471,7 +4466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
         <v>11</v>
       </c>
@@ -4506,7 +4501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
         <v>11</v>
       </c>
@@ -4541,7 +4536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
         <v>11</v>
       </c>
@@ -4576,7 +4571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
         <v>11</v>
       </c>
@@ -4611,7 +4606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
         <v>11</v>
       </c>
@@ -4646,7 +4641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
         <v>11</v>
       </c>
@@ -4681,7 +4676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
         <v>11</v>
       </c>
@@ -4716,7 +4711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
         <v>11</v>
       </c>
@@ -4751,7 +4746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
         <v>11</v>
       </c>
@@ -4786,7 +4781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
         <v>11</v>
       </c>
@@ -4821,7 +4816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
         <v>11</v>
       </c>
@@ -4856,7 +4851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
         <v>11</v>
       </c>
@@ -4891,7 +4886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
         <v>11</v>
       </c>
@@ -4926,7 +4921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
         <v>11</v>
       </c>
@@ -4961,7 +4956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
         <v>11</v>
       </c>
@@ -4996,7 +4991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
         <v>11</v>
       </c>
@@ -5031,7 +5026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
         <v>11</v>
       </c>
@@ -5066,7 +5061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
         <v>11</v>
       </c>
@@ -5101,7 +5096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
         <v>11</v>
       </c>
@@ -5136,7 +5131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
         <v>11</v>
       </c>
@@ -5171,7 +5166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
         <v>11</v>
       </c>
@@ -5206,7 +5201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
         <v>11</v>
       </c>
@@ -5241,7 +5236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
         <v>11</v>
       </c>
@@ -5276,7 +5271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
         <v>11</v>
       </c>
@@ -5311,7 +5306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
         <v>11</v>
       </c>
@@ -5346,7 +5341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
         <v>11</v>
       </c>
@@ -5381,7 +5376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
         <v>11</v>
       </c>
@@ -5416,7 +5411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
         <v>11</v>
       </c>
@@ -5451,7 +5446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
         <v>11</v>
       </c>
@@ -5486,7 +5481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
         <v>11</v>
       </c>
@@ -5521,7 +5516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
         <v>11</v>
       </c>
@@ -5556,7 +5551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
         <v>11</v>
       </c>
@@ -5591,7 +5586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
         <v>11</v>
       </c>
@@ -5626,7 +5621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
         <v>11</v>
       </c>
@@ -5661,7 +5656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
         <v>11</v>
       </c>
@@ -5696,7 +5691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
         <v>11</v>
       </c>
@@ -5731,7 +5726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
         <v>11</v>
       </c>
@@ -5766,7 +5761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
         <v>11</v>
       </c>
@@ -5801,7 +5796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
         <v>11</v>
       </c>
@@ -5836,7 +5831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
         <v>11</v>
       </c>
@@ -5871,7 +5866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
         <v>11</v>
       </c>
@@ -5906,7 +5901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
         <v>11</v>
       </c>
@@ -5941,7 +5936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
         <v>11</v>
       </c>
@@ -5976,7 +5971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
         <v>11</v>
       </c>
@@ -6011,7 +6006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
         <v>11</v>
       </c>
@@ -6046,7 +6041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
         <v>11</v>
       </c>
@@ -6081,7 +6076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
         <v>11</v>
       </c>
@@ -6116,7 +6111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
         <v>11</v>
       </c>
@@ -6151,7 +6146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
         <v>11</v>
       </c>
@@ -6186,7 +6181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
         <v>11</v>
       </c>
@@ -6221,7 +6216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
         <v>11</v>
       </c>
@@ -6256,7 +6251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
         <v>11</v>
       </c>
@@ -6291,7 +6286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
         <v>11</v>
       </c>
@@ -6326,7 +6321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
         <v>11</v>
       </c>
@@ -6361,7 +6356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
         <v>11</v>
       </c>
@@ -6396,7 +6391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="s">
         <v>11</v>
       </c>
@@ -6431,7 +6426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
         <v>11</v>
       </c>
@@ -6466,7 +6461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
         <v>11</v>
       </c>
@@ -6501,7 +6496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
         <v>11</v>
       </c>
@@ -6536,7 +6531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
         <v>11</v>
       </c>
@@ -6571,7 +6566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
         <v>11</v>
       </c>
@@ -6606,7 +6601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
         <v>11</v>
       </c>
@@ -6641,7 +6636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
         <v>11</v>
       </c>
@@ -6676,7 +6671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
         <v>11</v>
       </c>
@@ -6711,7 +6706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
         <v>11</v>
       </c>
@@ -6746,7 +6741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
         <v>11</v>
       </c>
@@ -6781,7 +6776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="s">
         <v>11</v>
       </c>
@@ -6816,7 +6811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="s">
         <v>11</v>
       </c>
@@ -6851,7 +6846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
         <v>11</v>
       </c>
@@ -6886,7 +6881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
         <v>11</v>
       </c>
@@ -6921,7 +6916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
         <v>11</v>
       </c>
@@ -6956,7 +6951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
         <v>11</v>
       </c>
@@ -6991,7 +6986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
         <v>11</v>
       </c>
@@ -7026,7 +7021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
         <v>11</v>
       </c>
@@ -7061,7 +7056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
         <v>11</v>
       </c>
@@ -7096,7 +7091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
         <v>11</v>
       </c>
@@ -7131,7 +7126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
         <v>11</v>
       </c>
@@ -7166,7 +7161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
         <v>11</v>
       </c>
@@ -7201,7 +7196,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
         <v>11</v>
       </c>
@@ -7236,7 +7231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
         <v>11</v>
       </c>
@@ -7271,7 +7266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="4" t="s">
         <v>11</v>
       </c>
@@ -7306,7 +7301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
         <v>11</v>
       </c>
@@ -7341,7 +7336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
         <v>11</v>
       </c>
@@ -7376,7 +7371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="4" t="s">
         <v>11</v>
       </c>
@@ -7411,7 +7406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
         <v>11</v>
       </c>
@@ -7446,7 +7441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="4" t="s">
         <v>11</v>
       </c>
@@ -7481,7 +7476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="4" t="s">
         <v>11</v>
       </c>
@@ -7516,7 +7511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="4" t="s">
         <v>11</v>
       </c>
@@ -8741,7 +8736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="8" t="s">
         <v>11</v>
       </c>
@@ -8776,7 +8771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="8" t="s">
         <v>11</v>
       </c>
@@ -8811,7 +8806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="8" t="s">
         <v>11</v>
       </c>
@@ -8846,7 +8841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="8" t="s">
         <v>11</v>
       </c>
@@ -8881,7 +8876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="8" t="s">
         <v>11</v>
       </c>
@@ -8916,7 +8911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="8" t="s">
         <v>11</v>
       </c>
@@ -8951,7 +8946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="8" t="s">
         <v>11</v>
       </c>
@@ -8986,7 +8981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="8" t="s">
         <v>11</v>
       </c>
@@ -9021,7 +9016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="8" t="s">
         <v>11</v>
       </c>
@@ -9056,7 +9051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="8" t="s">
         <v>11</v>
       </c>
@@ -9091,7 +9086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="8" t="s">
         <v>11</v>
       </c>
@@ -9126,7 +9121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="8" t="s">
         <v>11</v>
       </c>
@@ -9161,7 +9156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="8" t="s">
         <v>11</v>
       </c>
@@ -9196,7 +9191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="8" t="s">
         <v>11</v>
       </c>
@@ -9231,7 +9226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="8" t="s">
         <v>11</v>
       </c>
@@ -9266,7 +9261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="8" t="s">
         <v>11</v>
       </c>
@@ -9301,7 +9296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="8" t="s">
         <v>11</v>
       </c>
@@ -9336,7 +9331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="8" t="s">
         <v>11</v>
       </c>
@@ -9371,7 +9366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="8" t="s">
         <v>11</v>
       </c>
@@ -9406,7 +9401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="8" t="s">
         <v>11</v>
       </c>
@@ -9441,7 +9436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="8" t="s">
         <v>11</v>
       </c>
@@ -9476,7 +9471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="8" t="s">
         <v>11</v>
       </c>
@@ -9511,7 +9506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="8" t="s">
         <v>11</v>
       </c>
@@ -9546,7 +9541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="8" t="s">
         <v>11</v>
       </c>
@@ -9581,7 +9576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="8" t="s">
         <v>11</v>
       </c>
@@ -9616,7 +9611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="8" t="s">
         <v>11</v>
       </c>
@@ -9651,7 +9646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="8" t="s">
         <v>11</v>
       </c>
@@ -9686,7 +9681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="8" t="s">
         <v>11</v>
       </c>
@@ -9721,7 +9716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="8" t="s">
         <v>11</v>
       </c>
@@ -9756,7 +9751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="8" t="s">
         <v>11</v>
       </c>
@@ -9791,7 +9786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="8" t="s">
         <v>11</v>
       </c>
@@ -9826,7 +9821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="8" t="s">
         <v>11</v>
       </c>
@@ -9861,7 +9856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="8" t="s">
         <v>11</v>
       </c>
@@ -9896,7 +9891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="8" t="s">
         <v>11</v>
       </c>
@@ -9931,7 +9926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="8" t="s">
         <v>11</v>
       </c>
@@ -9966,7 +9961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="8" t="s">
         <v>11</v>
       </c>
@@ -10001,7 +9996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="8" t="s">
         <v>11</v>
       </c>
@@ -10036,7 +10031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="8" t="s">
         <v>11</v>
       </c>
@@ -10071,7 +10066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="8" t="s">
         <v>11</v>
       </c>
@@ -10106,7 +10101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="8" t="s">
         <v>11</v>
       </c>
@@ -10141,7 +10136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="8" t="s">
         <v>11</v>
       </c>
@@ -10176,7 +10171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="8" t="s">
         <v>11</v>
       </c>
@@ -10211,7 +10206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="8" t="s">
         <v>11</v>
       </c>
@@ -10246,7 +10241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="8" t="s">
         <v>11</v>
       </c>
@@ -10281,7 +10276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="8" t="s">
         <v>11</v>
       </c>
@@ -10316,7 +10311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="8" t="s">
         <v>11</v>
       </c>
@@ -10351,7 +10346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="8" t="s">
         <v>11</v>
       </c>
@@ -10386,7 +10381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="8" t="s">
         <v>11</v>
       </c>
@@ -10421,7 +10416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="8" t="s">
         <v>11</v>
       </c>
@@ -10456,7 +10451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="8" t="s">
         <v>11</v>
       </c>
@@ -10491,7 +10486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="8" t="s">
         <v>11</v>
       </c>
@@ -10526,7 +10521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="8" t="s">
         <v>11</v>
       </c>
@@ -10561,7 +10556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="8" t="s">
         <v>11</v>
       </c>
@@ -10596,7 +10591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="8" t="s">
         <v>11</v>
       </c>
@@ -10631,7 +10626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="8" t="s">
         <v>11</v>
       </c>
@@ -10666,7 +10661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="8" t="s">
         <v>11</v>
       </c>
@@ -10701,7 +10696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="8" t="s">
         <v>11</v>
       </c>
@@ -10736,7 +10731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="8" t="s">
         <v>11</v>
       </c>
@@ -10771,7 +10766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="8" t="s">
         <v>11</v>
       </c>
@@ -10806,7 +10801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="8" t="s">
         <v>11</v>
       </c>
@@ -10841,7 +10836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="8" t="s">
         <v>11</v>
       </c>
@@ -10876,7 +10871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="8" t="s">
         <v>11</v>
       </c>
@@ -10911,7 +10906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="8" t="s">
         <v>11</v>
       </c>
@@ -10946,7 +10941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="8" t="s">
         <v>11</v>
       </c>
@@ -10981,7 +10976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="8" t="s">
         <v>11</v>
       </c>
@@ -11016,7 +11011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="8" t="s">
         <v>11</v>
       </c>
@@ -11051,7 +11046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="8" t="s">
         <v>11</v>
       </c>
@@ -11086,7 +11081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="8" t="s">
         <v>11</v>
       </c>
@@ -11121,7 +11116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="8" t="s">
         <v>11</v>
       </c>
@@ -11156,7 +11151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="8" t="s">
         <v>11</v>
       </c>
@@ -11191,7 +11186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="8" t="s">
         <v>11</v>
       </c>
@@ -11226,7 +11221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="8" t="s">
         <v>11</v>
       </c>
@@ -11261,7 +11256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="8" t="s">
         <v>11</v>
       </c>
@@ -11296,7 +11291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="8" t="s">
         <v>11</v>
       </c>
@@ -11331,7 +11326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="8" t="s">
         <v>11</v>
       </c>
@@ -11366,7 +11361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="8" t="s">
         <v>11</v>
       </c>
@@ -11401,7 +11396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="8" t="s">
         <v>11</v>
       </c>
@@ -11436,7 +11431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="8" t="s">
         <v>11</v>
       </c>
@@ -11471,7 +11466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="8" t="s">
         <v>11</v>
       </c>
@@ -11506,7 +11501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="8" t="s">
         <v>11</v>
       </c>
@@ -11541,7 +11536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="8" t="s">
         <v>11</v>
       </c>
@@ -11576,7 +11571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="8" t="s">
         <v>11</v>
       </c>
@@ -11611,7 +11606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="8" t="s">
         <v>11</v>
       </c>
@@ -11646,7 +11641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="8" t="s">
         <v>11</v>
       </c>
@@ -11681,7 +11676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="8" t="s">
         <v>11</v>
       </c>
@@ -11716,7 +11711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="8" t="s">
         <v>11</v>
       </c>
@@ -11751,7 +11746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="8" t="s">
         <v>11</v>
       </c>
@@ -11786,7 +11781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="8" t="s">
         <v>11</v>
       </c>
@@ -11821,7 +11816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="8" t="s">
         <v>11</v>
       </c>
@@ -11856,7 +11851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="8" t="s">
         <v>11</v>
       </c>
@@ -11891,7 +11886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="8" t="s">
         <v>11</v>
       </c>
@@ -11926,7 +11921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="8" t="s">
         <v>11</v>
       </c>
@@ -11961,7 +11956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="8" t="s">
         <v>11</v>
       </c>
@@ -11996,7 +11991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="8" t="s">
         <v>11</v>
       </c>
@@ -12031,7 +12026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="8" t="s">
         <v>11</v>
       </c>
@@ -12066,7 +12061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="8" t="s">
         <v>11</v>
       </c>
@@ -12101,7 +12096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="8" t="s">
         <v>11</v>
       </c>
@@ -12136,7 +12131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="8" t="s">
         <v>11</v>
       </c>
@@ -12171,7 +12166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="8" t="s">
         <v>11</v>
       </c>
@@ -12206,7 +12201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="8" t="s">
         <v>11</v>
       </c>
@@ -12241,7 +12236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="8" t="s">
         <v>11</v>
       </c>
@@ -12276,7 +12271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="8" t="s">
         <v>11</v>
       </c>
@@ -12311,7 +12306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="8" t="s">
         <v>11</v>
       </c>
@@ -12346,7 +12341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="8" t="s">
         <v>11</v>
       </c>
@@ -12381,7 +12376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="8" t="s">
         <v>11</v>
       </c>
@@ -12416,7 +12411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="8" t="s">
         <v>11</v>
       </c>
@@ -12451,7 +12446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="8" t="s">
         <v>11</v>
       </c>
@@ -12486,7 +12481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="8" t="s">
         <v>11</v>
       </c>
@@ -12521,7 +12516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="8" t="s">
         <v>11</v>
       </c>
@@ -12556,7 +12551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="8" t="s">
         <v>11</v>
       </c>
@@ -12591,7 +12586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="8" t="s">
         <v>11</v>
       </c>
@@ -12626,7 +12621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="8" t="s">
         <v>11</v>
       </c>
@@ -12661,7 +12656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="8" t="s">
         <v>11</v>
       </c>
@@ -12696,7 +12691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="8" t="s">
         <v>11</v>
       </c>
@@ -12731,7 +12726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="8" t="s">
         <v>11</v>
       </c>
@@ -12766,7 +12761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="8" t="s">
         <v>11</v>
       </c>
@@ -12801,7 +12796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="8" t="s">
         <v>11</v>
       </c>
@@ -12836,7 +12831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="8" t="s">
         <v>11</v>
       </c>
@@ -12871,7 +12866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="8" t="s">
         <v>11</v>
       </c>
@@ -12906,7 +12901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="8" t="s">
         <v>11</v>
       </c>
@@ -12941,7 +12936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="8" t="s">
         <v>11</v>
       </c>
@@ -12976,7 +12971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="8" t="s">
         <v>11</v>
       </c>
@@ -13011,7 +13006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="8" t="s">
         <v>11</v>
       </c>
@@ -13046,7 +13041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="8" t="s">
         <v>11</v>
       </c>
@@ -13081,7 +13076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="8" t="s">
         <v>11</v>
       </c>
@@ -13116,7 +13111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="8" t="s">
         <v>11</v>
       </c>
@@ -13151,7 +13146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="8" t="s">
         <v>11</v>
       </c>
@@ -13186,7 +13181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="8" t="s">
         <v>11</v>
       </c>
@@ -13221,7 +13216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="8" t="s">
         <v>11</v>
       </c>
@@ -13256,7 +13251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="8" t="s">
         <v>11</v>
       </c>
@@ -13291,7 +13286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="8" t="s">
         <v>11</v>
       </c>
@@ -13326,7 +13321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="8" t="s">
         <v>11</v>
       </c>
@@ -13361,7 +13356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="8" t="s">
         <v>11</v>
       </c>
@@ -13396,7 +13391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="8" t="s">
         <v>11</v>
       </c>
@@ -13431,7 +13426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="8" t="s">
         <v>11</v>
       </c>
@@ -13466,7 +13461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="8" t="s">
         <v>11</v>
       </c>
@@ -13501,7 +13496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="8" t="s">
         <v>11</v>
       </c>
@@ -13536,7 +13531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="8" t="s">
         <v>11</v>
       </c>
@@ -13571,7 +13566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="8" t="s">
         <v>11</v>
       </c>
@@ -13606,7 +13601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="8" t="s">
         <v>11</v>
       </c>
@@ -13641,7 +13636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="8" t="s">
         <v>11</v>
       </c>
@@ -13676,7 +13671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="8" t="s">
         <v>11</v>
       </c>
@@ -13711,7 +13706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="8" t="s">
         <v>11</v>
       </c>
@@ -13746,7 +13741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="8" t="s">
         <v>11</v>
       </c>
@@ -13781,7 +13776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="8" t="s">
         <v>11</v>
       </c>
@@ -13816,7 +13811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="8" t="s">
         <v>11</v>
       </c>
@@ -13851,7 +13846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="8" t="s">
         <v>11</v>
       </c>
@@ -13886,7 +13881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="8" t="s">
         <v>11</v>
       </c>
@@ -13921,7 +13916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="8" t="s">
         <v>11</v>
       </c>
@@ -13956,7 +13951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="8" t="s">
         <v>11</v>
       </c>
@@ -13991,7 +13986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="8" t="s">
         <v>11</v>
       </c>
@@ -14026,7 +14021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="8" t="s">
         <v>11</v>
       </c>
@@ -14061,7 +14056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="8" t="s">
         <v>11</v>
       </c>
@@ -14096,7 +14091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="8" t="s">
         <v>11</v>
       </c>
@@ -14131,7 +14126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="8" t="s">
         <v>11</v>
       </c>
@@ -14166,7 +14161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="8" t="s">
         <v>11</v>
       </c>
@@ -14201,7 +14196,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="8" t="s">
         <v>11</v>
       </c>
@@ -14236,7 +14231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="8" t="s">
         <v>11</v>
       </c>
@@ -14271,7 +14266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="8" t="s">
         <v>11</v>
       </c>
@@ -14306,7 +14301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="8" t="s">
         <v>11</v>
       </c>
@@ -14341,7 +14336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="8" t="s">
         <v>11</v>
       </c>
@@ -14376,7 +14371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="8" t="s">
         <v>11</v>
       </c>
@@ -14411,7 +14406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="8" t="s">
         <v>11</v>
       </c>
@@ -14446,7 +14441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="8" t="s">
         <v>11</v>
       </c>
@@ -14481,7 +14476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="8" t="s">
         <v>11</v>
       </c>
@@ -14516,7 +14511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="8" t="s">
         <v>11</v>
       </c>
@@ -14551,7 +14546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="8" t="s">
         <v>11</v>
       </c>
@@ -14586,7 +14581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="8" t="s">
         <v>11</v>
       </c>
@@ -14621,7 +14616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="8" t="s">
         <v>11</v>
       </c>
@@ -14656,7 +14651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="8" t="s">
         <v>11</v>
       </c>
@@ -14691,7 +14686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="8" t="s">
         <v>11</v>
       </c>
@@ -14726,7 +14721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="8" t="s">
         <v>11</v>
       </c>
@@ -14761,7 +14756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="8" t="s">
         <v>11</v>
       </c>
@@ -14796,7 +14791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="8" t="s">
         <v>11</v>
       </c>
@@ -14831,7 +14826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="8" t="s">
         <v>11</v>
       </c>
@@ -14866,7 +14861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="8" t="s">
         <v>11</v>
       </c>
@@ -14901,7 +14896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="8" t="s">
         <v>11</v>
       </c>
@@ -14936,7 +14931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="8" t="s">
         <v>11</v>
       </c>
@@ -14971,7 +14966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="8" t="s">
         <v>11</v>
       </c>
@@ -15006,7 +15001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="8" t="s">
         <v>11</v>
       </c>
@@ -15041,7 +15036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="8" t="s">
         <v>11</v>
       </c>
@@ -15076,7 +15071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="8" t="s">
         <v>11</v>
       </c>
@@ -15111,7 +15106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="8" t="s">
         <v>11</v>
       </c>
@@ -15146,7 +15141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="8" t="s">
         <v>11</v>
       </c>
@@ -15181,7 +15176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="8" t="s">
         <v>11</v>
       </c>
@@ -15216,7 +15211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="8" t="s">
         <v>11</v>
       </c>
@@ -15251,7 +15246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="8" t="s">
         <v>11</v>
       </c>
@@ -15286,7 +15281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="8" t="s">
         <v>11</v>
       </c>
@@ -15321,7 +15316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="8" t="s">
         <v>11</v>
       </c>
@@ -15356,7 +15351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="8" t="s">
         <v>11</v>
       </c>
@@ -15391,7 +15386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="8" t="s">
         <v>11</v>
       </c>
@@ -15426,7 +15421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="8" t="s">
         <v>11</v>
       </c>
@@ -15461,7 +15456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="8" t="s">
         <v>11</v>
       </c>
@@ -15496,7 +15491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="8" t="s">
         <v>11</v>
       </c>
@@ -15531,7 +15526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="8" t="s">
         <v>11</v>
       </c>
@@ -15566,7 +15561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="8" t="s">
         <v>11</v>
       </c>
@@ -15601,7 +15596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="8" t="s">
         <v>11</v>
       </c>
@@ -15636,7 +15631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="8" t="s">
         <v>11</v>
       </c>
@@ -15671,7 +15666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="8" t="s">
         <v>11</v>
       </c>
@@ -15706,7 +15701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="8" t="s">
         <v>11</v>
       </c>
@@ -15741,7 +15736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="8" t="s">
         <v>11</v>
       </c>
@@ -15776,7 +15771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="8" t="s">
         <v>11</v>
       </c>
@@ -15811,7 +15806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="8" t="s">
         <v>11</v>
       </c>
@@ -15846,7 +15841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="8" t="s">
         <v>11</v>
       </c>
@@ -17071,7 +17066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="11" t="s">
         <v>11</v>
       </c>
@@ -17106,7 +17101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="11" t="s">
         <v>11</v>
       </c>
@@ -17141,7 +17136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="11" t="s">
         <v>11</v>
       </c>
@@ -17176,7 +17171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="11" t="s">
         <v>11</v>
       </c>
@@ -17211,7 +17206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="11" t="s">
         <v>11</v>
       </c>
@@ -17246,7 +17241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="11" t="s">
         <v>11</v>
       </c>
@@ -17281,7 +17276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="11" t="s">
         <v>11</v>
       </c>
@@ -17316,7 +17311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="11" t="s">
         <v>11</v>
       </c>
@@ -17351,7 +17346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="11" t="s">
         <v>11</v>
       </c>
@@ -17386,7 +17381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="11" t="s">
         <v>11</v>
       </c>
@@ -17421,7 +17416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="11" t="s">
         <v>11</v>
       </c>
@@ -17456,7 +17451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="11" t="s">
         <v>11</v>
       </c>
@@ -17491,7 +17486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="11" t="s">
         <v>11</v>
       </c>
@@ -17526,7 +17521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="11" t="s">
         <v>11</v>
       </c>
@@ -17561,7 +17556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="11" t="s">
         <v>11</v>
       </c>
@@ -17596,7 +17591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="11" t="s">
         <v>11</v>
       </c>
@@ -17631,7 +17626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="11" t="s">
         <v>11</v>
       </c>
@@ -17666,7 +17661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="11" t="s">
         <v>11</v>
       </c>
@@ -17701,7 +17696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="11" t="s">
         <v>11</v>
       </c>
@@ -17736,7 +17731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="11" t="s">
         <v>11</v>
       </c>
@@ -17771,7 +17766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="11" t="s">
         <v>11</v>
       </c>
@@ -17806,7 +17801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="11" t="s">
         <v>11</v>
       </c>
@@ -17841,7 +17836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="11" t="s">
         <v>11</v>
       </c>
@@ -17876,7 +17871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="11" t="s">
         <v>11</v>
       </c>
@@ -17911,7 +17906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="11" t="s">
         <v>11</v>
       </c>
@@ -17946,7 +17941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="11" t="s">
         <v>11</v>
       </c>
@@ -17981,7 +17976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="11" t="s">
         <v>11</v>
       </c>
@@ -18016,7 +18011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="11" t="s">
         <v>11</v>
       </c>
@@ -18051,7 +18046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="11" t="s">
         <v>11</v>
       </c>
@@ -18086,7 +18081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="11" t="s">
         <v>11</v>
       </c>
@@ -18121,7 +18116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="11" t="s">
         <v>11</v>
       </c>
@@ -18156,7 +18151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="11" t="s">
         <v>11</v>
       </c>
@@ -18191,7 +18186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="510" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="11" t="s">
         <v>11</v>
       </c>
@@ -18226,7 +18221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="11" t="s">
         <v>11</v>
       </c>
@@ -18261,7 +18256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="11" t="s">
         <v>11</v>
       </c>
@@ -18296,7 +18291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="11" t="s">
         <v>11</v>
       </c>
@@ -18331,7 +18326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="11" t="s">
         <v>11</v>
       </c>
@@ -18366,7 +18361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="11" t="s">
         <v>11</v>
       </c>
@@ -18401,7 +18396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="11" t="s">
         <v>11</v>
       </c>
@@ -18436,7 +18431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="517" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="11" t="s">
         <v>11</v>
       </c>
@@ -18471,7 +18466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="518" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="11" t="s">
         <v>11</v>
       </c>
@@ -18506,7 +18501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="11" t="s">
         <v>11</v>
       </c>
@@ -18541,7 +18536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="11" t="s">
         <v>11</v>
       </c>
@@ -18576,7 +18571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="521" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="11" t="s">
         <v>11</v>
       </c>
@@ -18611,7 +18606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="11" t="s">
         <v>11</v>
       </c>
@@ -18646,7 +18641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="11" t="s">
         <v>11</v>
       </c>
@@ -18681,7 +18676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="11" t="s">
         <v>11</v>
       </c>
@@ -18716,7 +18711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="525" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="11" t="s">
         <v>11</v>
       </c>
@@ -18751,7 +18746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="11" t="s">
         <v>11</v>
       </c>
@@ -18786,7 +18781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="527" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="11" t="s">
         <v>11</v>
       </c>
@@ -18821,7 +18816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="528" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="11" t="s">
         <v>11</v>
       </c>
@@ -18856,7 +18851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="529" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="11" t="s">
         <v>11</v>
       </c>
@@ -18891,7 +18886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="530" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="11" t="s">
         <v>11</v>
       </c>
@@ -18926,7 +18921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="531" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="11" t="s">
         <v>11</v>
       </c>
@@ -18961,7 +18956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="11" t="s">
         <v>11</v>
       </c>
@@ -18996,7 +18991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="11" t="s">
         <v>11</v>
       </c>
@@ -19031,7 +19026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="11" t="s">
         <v>11</v>
       </c>
@@ -19066,7 +19061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="11" t="s">
         <v>11</v>
       </c>
@@ -19101,7 +19096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="536" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="11" t="s">
         <v>11</v>
       </c>
@@ -19136,7 +19131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="11" t="s">
         <v>11</v>
       </c>
@@ -19171,7 +19166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="538" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="11" t="s">
         <v>11</v>
       </c>
@@ -19206,7 +19201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="11" t="s">
         <v>11</v>
       </c>
@@ -19241,7 +19236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="540" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="11" t="s">
         <v>11</v>
       </c>
@@ -19276,7 +19271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="11" t="s">
         <v>11</v>
       </c>
@@ -19311,7 +19306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="11" t="s">
         <v>11</v>
       </c>
@@ -19346,7 +19341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="11" t="s">
         <v>11</v>
       </c>
@@ -19381,7 +19376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="544" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="11" t="s">
         <v>11</v>
       </c>
@@ -19416,7 +19411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="545" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="11" t="s">
         <v>11</v>
       </c>
@@ -19451,7 +19446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="546" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="11" t="s">
         <v>11</v>
       </c>
@@ -19486,7 +19481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="547" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="11" t="s">
         <v>11</v>
       </c>
@@ -19521,7 +19516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="548" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="11" t="s">
         <v>11</v>
       </c>
@@ -19556,7 +19551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="549" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="11" t="s">
         <v>11</v>
       </c>
@@ -19591,7 +19586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="550" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="11" t="s">
         <v>11</v>
       </c>
@@ -19626,7 +19621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="551" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="11" t="s">
         <v>11</v>
       </c>
@@ -19661,7 +19656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="552" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="11" t="s">
         <v>11</v>
       </c>
@@ -19696,7 +19691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="553" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="11" t="s">
         <v>11</v>
       </c>
@@ -19731,7 +19726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="554" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="11" t="s">
         <v>11</v>
       </c>
@@ -19766,7 +19761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="555" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="11" t="s">
         <v>11</v>
       </c>
@@ -19801,7 +19796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="556" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="11" t="s">
         <v>11</v>
       </c>
@@ -19836,7 +19831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="557" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="11" t="s">
         <v>11</v>
       </c>
@@ -19871,7 +19866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="558" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="11" t="s">
         <v>11</v>
       </c>
@@ -19906,7 +19901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="559" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="11" t="s">
         <v>11</v>
       </c>
@@ -19941,7 +19936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="560" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="11" t="s">
         <v>11</v>
       </c>
@@ -19976,7 +19971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="561" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="11" t="s">
         <v>11</v>
       </c>
@@ -20011,7 +20006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="562" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="11" t="s">
         <v>11</v>
       </c>
@@ -20046,7 +20041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="563" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="11" t="s">
         <v>11</v>
       </c>
@@ -20081,7 +20076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="564" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="11" t="s">
         <v>11</v>
       </c>
@@ -20116,7 +20111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="565" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="11" t="s">
         <v>11</v>
       </c>
@@ -20151,7 +20146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="566" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="11" t="s">
         <v>11</v>
       </c>
@@ -20186,7 +20181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="567" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="11" t="s">
         <v>11</v>
       </c>
@@ -20221,7 +20216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="568" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="11" t="s">
         <v>11</v>
       </c>
@@ -20256,7 +20251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="569" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="11" t="s">
         <v>11</v>
       </c>
@@ -20291,7 +20286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="570" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="11" t="s">
         <v>11</v>
       </c>
@@ -20326,7 +20321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="11" t="s">
         <v>11</v>
       </c>
@@ -20361,7 +20356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="572" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="11" t="s">
         <v>11</v>
       </c>
@@ -20396,7 +20391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="11" t="s">
         <v>11</v>
       </c>
@@ -20431,7 +20426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="11" t="s">
         <v>11</v>
       </c>
@@ -20466,7 +20461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="575" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="11" t="s">
         <v>11</v>
       </c>
@@ -20501,7 +20496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="576" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="11" t="s">
         <v>11</v>
       </c>
@@ -20536,7 +20531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="577" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="11" t="s">
         <v>11</v>
       </c>
@@ -20571,7 +20566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="578" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="11" t="s">
         <v>11</v>
       </c>
@@ -20606,7 +20601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="579" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="11" t="s">
         <v>11</v>
       </c>
@@ -20641,7 +20636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="580" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="11" t="s">
         <v>11</v>
       </c>
@@ -20676,7 +20671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="581" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="11" t="s">
         <v>11</v>
       </c>
@@ -20711,7 +20706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="582" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="11" t="s">
         <v>11</v>
       </c>
@@ -20746,7 +20741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="583" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="11" t="s">
         <v>11</v>
       </c>
@@ -20781,7 +20776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="584" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="11" t="s">
         <v>11</v>
       </c>
@@ -20816,7 +20811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="585" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="11" t="s">
         <v>11</v>
       </c>
@@ -20851,7 +20846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="586" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="11" t="s">
         <v>11</v>
       </c>
@@ -20886,7 +20881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="587" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="11" t="s">
         <v>11</v>
       </c>
@@ -20921,7 +20916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="588" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="11" t="s">
         <v>11</v>
       </c>
@@ -20956,7 +20951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="589" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="11" t="s">
         <v>11</v>
       </c>
@@ -20991,7 +20986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="590" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="11" t="s">
         <v>11</v>
       </c>
@@ -21026,7 +21021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="591" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="11" t="s">
         <v>11</v>
       </c>
@@ -21061,7 +21056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="592" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="11" t="s">
         <v>11</v>
       </c>
@@ -21096,7 +21091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="593" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="11" t="s">
         <v>11</v>
       </c>
@@ -21131,7 +21126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="594" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="11" t="s">
         <v>11</v>
       </c>
@@ -21166,7 +21161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="595" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="11" t="s">
         <v>11</v>
       </c>
@@ -21201,7 +21196,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="596" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="11" t="s">
         <v>11</v>
       </c>
@@ -21236,7 +21231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="597" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="11" t="s">
         <v>11</v>
       </c>
@@ -21271,7 +21266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="598" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="11" t="s">
         <v>11</v>
       </c>
@@ -21306,7 +21301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="599" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="11" t="s">
         <v>11</v>
       </c>
@@ -21341,7 +21336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="600" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="11" t="s">
         <v>11</v>
       </c>
@@ -21376,7 +21371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="601" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="11" t="s">
         <v>11</v>
       </c>
@@ -21411,7 +21406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="11" t="s">
         <v>11</v>
       </c>
@@ -21446,7 +21441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="603" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="11" t="s">
         <v>11</v>
       </c>
@@ -21481,7 +21476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="604" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="11" t="s">
         <v>11</v>
       </c>
@@ -21516,7 +21511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="605" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="11" t="s">
         <v>11</v>
       </c>
@@ -21551,7 +21546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="606" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="11" t="s">
         <v>11</v>
       </c>
@@ -21586,7 +21581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="607" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="11" t="s">
         <v>11</v>
       </c>
@@ -21621,7 +21616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="608" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="11" t="s">
         <v>11</v>
       </c>
@@ -21656,7 +21651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="609" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="11" t="s">
         <v>11</v>
       </c>
@@ -21691,7 +21686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="610" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="11" t="s">
         <v>11</v>
       </c>
@@ -21726,7 +21721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="611" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="11" t="s">
         <v>11</v>
       </c>
@@ -21761,7 +21756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="612" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="11" t="s">
         <v>11</v>
       </c>
@@ -21796,7 +21791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="613" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="11" t="s">
         <v>11</v>
       </c>
@@ -21831,7 +21826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="614" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="11" t="s">
         <v>11</v>
       </c>
@@ -21866,7 +21861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="615" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="11" t="s">
         <v>11</v>
       </c>
@@ -21901,7 +21896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="616" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="11" t="s">
         <v>11</v>
       </c>
@@ -21936,7 +21931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="617" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="11" t="s">
         <v>11</v>
       </c>
@@ -21971,7 +21966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="618" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="11" t="s">
         <v>11</v>
       </c>
@@ -22006,7 +22001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="619" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="11" t="s">
         <v>11</v>
       </c>
@@ -22041,7 +22036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="620" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="11" t="s">
         <v>11</v>
       </c>
@@ -22076,7 +22071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="621" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="11" t="s">
         <v>11</v>
       </c>
@@ -22111,7 +22106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="622" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="11" t="s">
         <v>11</v>
       </c>
@@ -22146,7 +22141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="623" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="11" t="s">
         <v>11</v>
       </c>
@@ -22181,7 +22176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="624" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="11" t="s">
         <v>11</v>
       </c>
@@ -22216,7 +22211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="625" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="11" t="s">
         <v>11</v>
       </c>
@@ -22251,7 +22246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="626" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="11" t="s">
         <v>11</v>
       </c>
@@ -22286,7 +22281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="627" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="11" t="s">
         <v>11</v>
       </c>
@@ -22321,7 +22316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="628" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="11" t="s">
         <v>11</v>
       </c>
@@ -22356,7 +22351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="629" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="11" t="s">
         <v>11</v>
       </c>
@@ -22391,7 +22386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="630" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="11" t="s">
         <v>11</v>
       </c>
@@ -22426,7 +22421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="631" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="11" t="s">
         <v>11</v>
       </c>
@@ -22461,7 +22456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="632" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="11" t="s">
         <v>11</v>
       </c>
@@ -22496,7 +22491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="633" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="11" t="s">
         <v>11</v>
       </c>
@@ -22531,7 +22526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="634" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="11" t="s">
         <v>11</v>
       </c>
@@ -22566,7 +22561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="635" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="11" t="s">
         <v>11</v>
       </c>
@@ -22601,7 +22596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="636" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="11" t="s">
         <v>11</v>
       </c>
@@ -22636,7 +22631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="637" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="11" t="s">
         <v>11</v>
       </c>
@@ -22671,7 +22666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="638" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="11" t="s">
         <v>11</v>
       </c>
@@ -22706,7 +22701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="639" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="11" t="s">
         <v>11</v>
       </c>
@@ -22741,7 +22736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="640" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="11" t="s">
         <v>11</v>
       </c>
@@ -22776,7 +22771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="641" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="11" t="s">
         <v>11</v>
       </c>
@@ -22811,7 +22806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="642" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="11" t="s">
         <v>11</v>
       </c>
@@ -22846,7 +22841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="643" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="11" t="s">
         <v>11</v>
       </c>
@@ -22881,7 +22876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="644" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="11" t="s">
         <v>11</v>
       </c>
@@ -22916,7 +22911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="645" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="11" t="s">
         <v>11</v>
       </c>
@@ -22951,7 +22946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="646" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="11" t="s">
         <v>11</v>
       </c>
@@ -22986,7 +22981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="647" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="11" t="s">
         <v>11</v>
       </c>
@@ -23021,7 +23016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="648" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="11" t="s">
         <v>11</v>
       </c>
@@ -23056,7 +23051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="649" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="11" t="s">
         <v>11</v>
       </c>
@@ -23091,7 +23086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="650" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="11" t="s">
         <v>11</v>
       </c>
@@ -23126,7 +23121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="651" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="11" t="s">
         <v>11</v>
       </c>
@@ -23161,7 +23156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="652" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="11" t="s">
         <v>11</v>
       </c>
@@ -23196,7 +23191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="653" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="11" t="s">
         <v>11</v>
       </c>
@@ -23231,7 +23226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="654" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="11" t="s">
         <v>11</v>
       </c>
@@ -23266,7 +23261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="655" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="11" t="s">
         <v>11</v>
       </c>
@@ -23301,7 +23296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="656" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="11" t="s">
         <v>11</v>
       </c>
@@ -23336,7 +23331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="657" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="11" t="s">
         <v>11</v>
       </c>
@@ -23371,7 +23366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="658" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="11" t="s">
         <v>11</v>
       </c>
@@ -23406,7 +23401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="659" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="11" t="s">
         <v>11</v>
       </c>
@@ -23441,7 +23436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="660" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="11" t="s">
         <v>11</v>
       </c>
@@ -23476,7 +23471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="661" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="11" t="s">
         <v>11</v>
       </c>
@@ -23511,7 +23506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="662" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="11" t="s">
         <v>11</v>
       </c>
@@ -23546,7 +23541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="663" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="11" t="s">
         <v>11</v>
       </c>
@@ -23581,7 +23576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="664" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="11" t="s">
         <v>11</v>
       </c>
@@ -23616,7 +23611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="665" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="11" t="s">
         <v>11</v>
       </c>
@@ -23651,7 +23646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="666" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="11" t="s">
         <v>11</v>
       </c>
@@ -23686,7 +23681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="667" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="11" t="s">
         <v>11</v>
       </c>
@@ -23721,7 +23716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="668" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="11" t="s">
         <v>11</v>
       </c>
@@ -23756,7 +23751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="669" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="11" t="s">
         <v>11</v>
       </c>
@@ -23791,7 +23786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="670" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="11" t="s">
         <v>11</v>
       </c>
@@ -23826,7 +23821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="671" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="11" t="s">
         <v>11</v>
       </c>
@@ -23861,7 +23856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="672" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="11" t="s">
         <v>11</v>
       </c>
@@ -23896,7 +23891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="673" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="11" t="s">
         <v>11</v>
       </c>
@@ -23931,7 +23926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="674" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="11" t="s">
         <v>11</v>
       </c>
@@ -23966,7 +23961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="675" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="11" t="s">
         <v>11</v>
       </c>
@@ -24001,7 +23996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="676" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="11" t="s">
         <v>11</v>
       </c>
@@ -24036,7 +24031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="677" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="11" t="s">
         <v>11</v>
       </c>
@@ -24071,7 +24066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="678" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="11" t="s">
         <v>11</v>
       </c>
@@ -24106,7 +24101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="679" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="11" t="s">
         <v>11</v>
       </c>
@@ -24141,7 +24136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="680" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="11" t="s">
         <v>11</v>
       </c>
@@ -24176,7 +24171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="681" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="11" t="s">
         <v>11</v>
       </c>
@@ -25402,13 +25397,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K715">
-    <filterColumn colId="1">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Mednet Silk Road (Outpatient treatment restricted to Clinics)"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I715"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
